--- a/рис/лабы/3 шуман.xlsx
+++ b/рис/лабы/3 шуман.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5335C7-A9F2-4589-B61F-E09004D2F93B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D16F650-5A73-44B5-8444-95ABAB4FACCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,6 +221,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,12 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -339,72 +339,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$G$20:$O$20</c:f>
+              <c:f>Лист1!$G$20:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$G$21:$O$21</c:f>
+              <c:f>Лист1!$G$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2588142242433998E-2</c:v>
+                  <c:v>4.393693362340742E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15335496684492847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28650479686019009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28650479686019009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3517745856009107E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.393693362340742E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.20849986238988E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.20849986238988E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4.393693362340742E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.20849986238988E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.15335496684492847</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28650479686019009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15335496684492847</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28650479686019009</c:v>
+                <c:pt idx="9">
+                  <c:v>4.393693362340742E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,8 +866,8 @@
   </sheetPr>
   <dimension ref="F2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -986,83 +992,83 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="6:17" ht="13.5" customHeight="1">
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f>SUM(H4:I4)/G10</f>
         <v>4.1666666666666669E-4</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13">
-        <f>SUM(J4:P4)/G10</f>
-        <v>1.1666666666666668E-3</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="9">
+        <f>SUM(J4:Q4)/G10</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="6:17" ht="13.2">
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="14">
         <f>SUM(H3:I3)</f>
         <v>0.8</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14">
-        <f>SUM(J3:P3)</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10">
+        <f>SUM(J3:Q3)</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="6:17" ht="13.2">
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <f>SUM(H4:I4)/H7</f>
         <v>6.25</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="13">
-        <f>SUM(J4:P4)/J7</f>
-        <v>5.185185185185186</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="9">
+        <f>SUM(J4:Q4)/J7</f>
+        <v>4.6875</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="10" spans="6:17" ht="13.2">
       <c r="F10" s="3" t="s">
@@ -1089,11 +1095,11 @@
     <row r="14" spans="6:17" ht="13.2">
       <c r="G14" s="4">
         <f>(G10*((J8/H8)*H6-J6))/(J8/H8 - 1)</f>
-        <v>57.826086956521777</v>
+        <v>45</v>
       </c>
       <c r="H14" s="5">
         <f>H8/(G14/G10-H6)</f>
-        <v>1419.753086419752</v>
+        <v>1875.0000000000002</v>
       </c>
     </row>
     <row r="15" spans="6:17" ht="13.2">
@@ -1102,84 +1108,91 @@
     <row r="16" spans="6:17" ht="13.2">
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="6:15" ht="13.2">
+    <row r="17" spans="6:16" ht="13.2">
       <c r="G17" s="4"/>
       <c r="L17" s="5">
         <f>(-H14*(G14/G10-H6))</f>
         <v>-6.25</v>
       </c>
     </row>
-    <row r="20" spans="6:15" ht="13.2">
+    <row r="20" spans="6:16" ht="13.2">
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="2">
         <v>0.4</v>
       </c>
-      <c r="I20" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="N20" s="2">
         <v>0.5</v>
       </c>
-      <c r="K20" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2">
         <v>0.3</v>
       </c>
-      <c r="M20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="6:15" ht="13.2">
+      <c r="P20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" ht="13.2">
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:O21" si="0">EXP($L$17*G$20)</f>
-        <v>1.2588142242433998E-2</v>
+        <f>EXP($L$17*G$20)</f>
+        <v>4.393693362340742E-2</v>
       </c>
       <c r="H21" s="6">
+        <f t="shared" ref="H21:P21" si="0">EXP($L$17*H$20)</f>
+        <v>0.15335496684492847</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28650479686019009</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28650479686019009</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3517745856009107E-2</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="0"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="M21" s="6">
         <f t="shared" si="0"/>
         <v>8.20849986238988E-2</v>
       </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>8.20849986238988E-2</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="N21" s="6">
         <f t="shared" si="0"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="K21" s="6">
-        <f t="shared" si="0"/>
-        <v>8.20849986238988E-2</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="O21" s="6">
         <f t="shared" si="0"/>
         <v>0.15335496684492847</v>
       </c>
-      <c r="M21" s="6">
+      <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>0.28650479686019009</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15335496684492847</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28650479686019009</v>
+        <v>4.393693362340742E-2</v>
       </c>
     </row>
   </sheetData>
